--- a/PedidosEmprestimo.xlsx
+++ b/PedidosEmprestimo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\Processamento de pedidos de empréstimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206046C2-CCF2-48B7-856A-D9B6D014283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105F1FF-9B6F-4472-934F-47EE602F6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="3360" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28365" yWindow="2895" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Montante do Empréstimo</t>
+  </si>
+  <si>
+    <t>Termo do Empréstimo</t>
+  </si>
+  <si>
+    <t>Renda Anual Atual( Antes dos Impostos)</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>maria@teste.com</t>
+  </si>
+  <si>
+    <t>pedro@teste.com</t>
+  </si>
+  <si>
+    <t>daniela@teste.com</t>
+  </si>
+  <si>
+    <t>joao@teste.com</t>
+  </si>
+  <si>
+    <t>sandra@teste.com</t>
+  </si>
+  <si>
+    <t>marcelo@teste.com</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>Status do Empréstimo</t>
+  </si>
+  <si>
+    <t>ID do Empréstimo</t>
+  </si>
   <si>
     <t>APR</t>
   </si>
   <si>
-    <t>Email do Solicitante</t>
-  </si>
-  <si>
-    <t>Montante do Empréstimo</t>
-  </si>
-  <si>
-    <t>Termo do Empréstimo</t>
-  </si>
-  <si>
-    <t>Renda Anual Atual( Antes dos Impostos)</t>
-  </si>
-  <si>
-    <t>Idade</t>
-  </si>
-  <si>
-    <t>Status do Empréstimo</t>
-  </si>
-  <si>
-    <t>ID do Empréstimo</t>
-  </si>
-  <si>
-    <t>maria@teste.com</t>
-  </si>
-  <si>
-    <t>pedro@teste.com</t>
-  </si>
-  <si>
-    <t>daniela@teste.com</t>
-  </si>
-  <si>
-    <t>joao@teste.com</t>
-  </si>
-  <si>
-    <t>sandra@teste.com</t>
-  </si>
-  <si>
-    <t>marcelo@teste.com</t>
+    <t>Reprovado</t>
+  </si>
+  <si>
+    <t>622b93bd12d670003fa3baec</t>
+  </si>
+  <si>
+    <t>622b93c312d670003fa3baed</t>
+  </si>
+  <si>
+    <t>622b93c912d670003fa3baee</t>
+  </si>
+  <si>
+    <t>622b93d012d670003fa3baef</t>
   </si>
 </sst>
 </file>
@@ -127,13 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -418,7 +434,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,34 +448,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -473,10 +489,19 @@
       <c r="E2">
         <v>20</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>30000</v>
@@ -490,10 +515,19 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>40000</v>
@@ -507,10 +541,19 @@
       <c r="E4">
         <v>45</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>50000</v>
@@ -524,10 +567,19 @@
       <c r="E5">
         <v>29</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>120000</v>
@@ -541,10 +593,13 @@
       <c r="E6">
         <v>70</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>120000</v>
@@ -558,6 +613,12 @@
       <c r="E7">
         <v>21</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
